--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_25_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_25_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.831198550748785, 2.367620157478558]</t>
+          <t>[1.8273438634758574, 2.3714748447514853]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.16074835431545664, 0.43822948507352666]</t>
+          <t>[0.160650822553972, 0.4383270168350113]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>7.775797537035167e-05</v>
+        <v>7.852266648877837e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>7.775797537035167e-05</v>
+        <v>7.852266648877837e-05</v>
       </c>
       <c r="W2" t="n">
         <v>9.553593593593842</v>
